--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H2">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I2">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J2">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>997.1400259076827</v>
+        <v>4122.551080038331</v>
       </c>
       <c r="R2">
-        <v>3988.560103630731</v>
+        <v>16490.20432015332</v>
       </c>
       <c r="S2">
-        <v>0.0003067035830614157</v>
+        <v>0.0008250327848859662</v>
       </c>
       <c r="T2">
-        <v>0.000160632063754398</v>
+        <v>0.0004484294221027906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H3">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I3">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J3">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>719.5687760469239</v>
+        <v>2429.164116161528</v>
       </c>
       <c r="R3">
-        <v>4317.412656281543</v>
+        <v>14574.98469696917</v>
       </c>
       <c r="S3">
-        <v>0.0002213273122516709</v>
+        <v>0.0004861407407190132</v>
       </c>
       <c r="T3">
-        <v>0.0001738760071401619</v>
+        <v>0.0003963475429368198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H4">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I4">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J4">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>512.1618406777934</v>
+        <v>1587.467940118754</v>
       </c>
       <c r="R4">
-        <v>3072.97104406676</v>
+        <v>9524.807640712526</v>
       </c>
       <c r="S4">
-        <v>0.0001575324102552394</v>
+        <v>0.0003176948132662522</v>
       </c>
       <c r="T4">
-        <v>0.000123758365886631</v>
+        <v>0.0002590146188028099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H5">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I5">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J5">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>847.6755633654097</v>
+        <v>3518.840830771217</v>
       </c>
       <c r="R5">
-        <v>3390.702253461639</v>
+        <v>14075.36332308487</v>
       </c>
       <c r="S5">
-        <v>0.0002607308159364222</v>
+        <v>0.0007042142095555625</v>
       </c>
       <c r="T5">
-        <v>0.0001365544172330357</v>
+        <v>0.0003827609966690257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H6">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I6">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J6">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>737.5570732994219</v>
+        <v>1224.197353505282</v>
       </c>
       <c r="R6">
-        <v>4425.342439796531</v>
+        <v>7345.184121031693</v>
       </c>
       <c r="S6">
-        <v>0.0002268602114204641</v>
+        <v>0.0002449946482659717</v>
       </c>
       <c r="T6">
-        <v>0.0001782226844914186</v>
+        <v>0.0001997426233589694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H7">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I7">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J7">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>482.4964308973425</v>
+        <v>1764.381992161881</v>
       </c>
       <c r="R7">
-        <v>2894.978585384055</v>
+        <v>10586.29195297128</v>
       </c>
       <c r="S7">
-        <v>0.0001484078267100476</v>
+        <v>0.0003531000490556519</v>
       </c>
       <c r="T7">
-        <v>0.0001165900406694941</v>
+        <v>0.0002878802888379369</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J8">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>5230.213759790702</v>
+        <v>6405.378352541766</v>
       </c>
       <c r="R8">
-        <v>31381.28255874422</v>
+        <v>38432.2701152506</v>
       </c>
       <c r="S8">
-        <v>0.001608726215603184</v>
+        <v>0.001281887607417269</v>
       </c>
       <c r="T8">
-        <v>0.001263824550639809</v>
+        <v>0.001045115047896504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J9">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>3774.29289348857</v>
@@ -1013,10 +1013,10 @@
         <v>33968.63604139713</v>
       </c>
       <c r="S9">
-        <v>0.001160909324547919</v>
+        <v>0.0007553370028495157</v>
       </c>
       <c r="T9">
-        <v>0.001368025545179754</v>
+        <v>0.0009237323888732818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J10">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>2686.398937716226</v>
+        <v>2466.514685100322</v>
       </c>
       <c r="R10">
-        <v>24177.59043944603</v>
+        <v>22198.63216590291</v>
       </c>
       <c r="S10">
-        <v>0.0008262913515881956</v>
+        <v>0.0004936155890132792</v>
       </c>
       <c r="T10">
-        <v>0.0009737088442923412</v>
+        <v>0.0006036626108666495</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J11">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>4446.240528070594</v>
+        <v>5467.368735004847</v>
       </c>
       <c r="R11">
-        <v>26677.44316842357</v>
+        <v>32804.21241002908</v>
       </c>
       <c r="S11">
-        <v>0.001367589170709295</v>
+        <v>0.001094166783106923</v>
       </c>
       <c r="T11">
-        <v>0.00107438590380868</v>
+        <v>0.0008920674194187157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J12">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>3868.645378957778</v>
+        <v>1902.086129472226</v>
       </c>
       <c r="R12">
-        <v>34817.80841062</v>
+        <v>17118.77516525004</v>
       </c>
       <c r="S12">
-        <v>0.001189930569921972</v>
+        <v>0.0003806583317038848</v>
       </c>
       <c r="T12">
-        <v>0.001402224430644039</v>
+        <v>0.0004655225796734884</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J13">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>2530.797487175408</v>
+        <v>2741.393374828274</v>
       </c>
       <c r="R13">
-        <v>22777.17738457867</v>
+        <v>24672.54037345447</v>
       </c>
       <c r="S13">
-        <v>0.0007784309496682341</v>
+        <v>0.0005486261702017477</v>
       </c>
       <c r="T13">
-        <v>0.0009173097345215808</v>
+        <v>0.0006709372914169619</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H14">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I14">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J14">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>552067.5094994621</v>
+        <v>184928.1191786245</v>
       </c>
       <c r="R14">
-        <v>3312405.056996773</v>
+        <v>1109568.715071747</v>
       </c>
       <c r="S14">
-        <v>0.1698067260926033</v>
+        <v>0.03700906506857541</v>
       </c>
       <c r="T14">
-        <v>0.1334011388750422</v>
+        <v>0.03017326213932158</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H15">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I15">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J15">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>398389.9269755919</v>
+        <v>108966.6913657211</v>
       </c>
       <c r="R15">
-        <v>3585509.342780326</v>
+        <v>980700.2222914901</v>
       </c>
       <c r="S15">
-        <v>0.1225380737753096</v>
+        <v>0.02180715074036986</v>
       </c>
       <c r="T15">
-        <v>0.144399921369419</v>
+        <v>0.02666885293839478</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H16">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I16">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J16">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>283558.882902397</v>
+        <v>71210.14505896601</v>
       </c>
       <c r="R16">
-        <v>2552029.946121573</v>
+        <v>640891.3055306941</v>
       </c>
       <c r="S16">
-        <v>0.08721796651968848</v>
+        <v>0.01425105551138158</v>
       </c>
       <c r="T16">
-        <v>0.1027784028214525</v>
+        <v>0.01742819629096991</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H17">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I17">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J17">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>469316.3697893933</v>
+        <v>157847.0718469349</v>
       </c>
       <c r="R17">
-        <v>2815898.21873636</v>
+        <v>947082.4310816095</v>
       </c>
       <c r="S17">
-        <v>0.1443538605049534</v>
+        <v>0.03158942284609875</v>
       </c>
       <c r="T17">
-        <v>0.113405221545041</v>
+        <v>0.02575466131335863</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H18">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I18">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J18">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>408349.1646015038</v>
+        <v>54914.66562618712</v>
       </c>
       <c r="R18">
-        <v>3675142.481413534</v>
+        <v>494231.9906356841</v>
       </c>
       <c r="S18">
-        <v>0.1256013685835255</v>
+        <v>0.01098989403237026</v>
       </c>
       <c r="T18">
-        <v>0.1480097343508831</v>
+        <v>0.01343998907731005</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H19">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I19">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J19">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>267134.6009858563</v>
+        <v>79146.1007973969</v>
       </c>
       <c r="R19">
-        <v>2404211.408872707</v>
+        <v>712314.9071765719</v>
       </c>
       <c r="S19">
-        <v>0.08216613229166379</v>
+        <v>0.01583925260985113</v>
       </c>
       <c r="T19">
-        <v>0.0968252778634438</v>
+        <v>0.01937046721671082</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H20">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I20">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J20">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>20864.35999606828</v>
+        <v>38745.38345419413</v>
       </c>
       <c r="R20">
-        <v>83457.43998427312</v>
+        <v>154981.5338167765</v>
       </c>
       <c r="S20">
-        <v>0.006417527932701657</v>
+        <v>0.007753988002106501</v>
       </c>
       <c r="T20">
-        <v>0.003361097857878428</v>
+        <v>0.00421451901363797</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H21">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I21">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J21">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>15056.40290761252</v>
+        <v>22830.25566610368</v>
       </c>
       <c r="R21">
-        <v>90338.41744567511</v>
+        <v>136981.5339966221</v>
       </c>
       <c r="S21">
-        <v>0.004631097538760927</v>
+        <v>0.004568945064881767</v>
       </c>
       <c r="T21">
-        <v>0.003638216813480063</v>
+        <v>0.003725032688272227</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H22">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I22">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J22">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>10716.578156035</v>
+        <v>14919.65845104069</v>
       </c>
       <c r="R22">
-        <v>64299.46893621003</v>
+        <v>89517.95070624417</v>
       </c>
       <c r="S22">
-        <v>0.003296240079844047</v>
+        <v>0.002985822885497175</v>
       </c>
       <c r="T22">
-        <v>0.002589545130367544</v>
+        <v>0.002434322954626309</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H23">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I23">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J23">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>17736.93528933049</v>
+        <v>33071.47313775386</v>
       </c>
       <c r="R23">
-        <v>70947.74115732197</v>
+        <v>132285.8925510154</v>
       </c>
       <c r="S23">
-        <v>0.005455584435911286</v>
+        <v>0.006618486721787033</v>
       </c>
       <c r="T23">
-        <v>0.002857292302161728</v>
+        <v>0.003597340893860564</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H24">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I24">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J24">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>15432.79368507706</v>
+        <v>11505.49622413188</v>
       </c>
       <c r="R24">
-        <v>92596.76211046235</v>
+        <v>69032.97734479126</v>
       </c>
       <c r="S24">
-        <v>0.004746869042341443</v>
+        <v>0.002302557665629271</v>
       </c>
       <c r="T24">
-        <v>0.003729167571334581</v>
+        <v>0.00187726104150976</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H25">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I25">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J25">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>10095.85310939294</v>
+        <v>16582.36745130915</v>
       </c>
       <c r="R25">
-        <v>60575.11865635766</v>
+        <v>99494.20470785489</v>
       </c>
       <c r="S25">
-        <v>0.003105315444432099</v>
+        <v>0.003318575448246183</v>
       </c>
       <c r="T25">
-        <v>0.00243955364069377</v>
+        <v>0.002705614063568212</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H26">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I26">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J26">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>1529.495901000881</v>
+        <v>151148.3021164113</v>
       </c>
       <c r="R26">
-        <v>9176.975406005286</v>
+        <v>906889.8126984676</v>
       </c>
       <c r="S26">
-        <v>0.0004704473403198328</v>
+        <v>0.03024881977319944</v>
       </c>
       <c r="T26">
-        <v>0.0003695861313831315</v>
+        <v>0.02466167590914972</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H27">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I27">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J27">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>1103.734144510096</v>
+        <v>89062.33654635855</v>
       </c>
       <c r="R27">
-        <v>9933.607300590862</v>
+        <v>801561.0289172271</v>
       </c>
       <c r="S27">
-        <v>0.0003394901499017888</v>
+        <v>0.0178237567279846</v>
       </c>
       <c r="T27">
-        <v>0.0004000581161525337</v>
+        <v>0.02179739814006915</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H28">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I28">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J28">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>785.5962208042738</v>
+        <v>58202.57388077181</v>
       </c>
       <c r="R28">
-        <v>7070.365987238465</v>
+        <v>523823.1649269463</v>
       </c>
       <c r="S28">
-        <v>0.0002416362491725762</v>
+        <v>0.01164789245399426</v>
       </c>
       <c r="T28">
-        <v>0.0002847462368675802</v>
+        <v>0.01424468215018826</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H29">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I29">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J29">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>1300.234937781989</v>
+        <v>129014.0028984253</v>
       </c>
       <c r="R29">
-        <v>7801.409626691934</v>
+        <v>774084.0173905516</v>
       </c>
       <c r="S29">
-        <v>0.0003999305051227513</v>
+        <v>0.02581915421641889</v>
       </c>
       <c r="T29">
-        <v>0.0003141877008166988</v>
+        <v>0.02105019694347996</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H30">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I30">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J30">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>1131.326083654888</v>
+        <v>44883.70134058038</v>
       </c>
       <c r="R30">
-        <v>10181.93475289399</v>
+        <v>403953.3120652235</v>
       </c>
       <c r="S30">
-        <v>0.0003479769685826625</v>
+        <v>0.008982429664077007</v>
       </c>
       <c r="T30">
-        <v>0.0004100590563700355</v>
+        <v>0.01098497912876268</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H31">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I31">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J31">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>740.0929599965367</v>
+        <v>64688.91160411284</v>
       </c>
       <c r="R31">
-        <v>6660.83663996883</v>
+        <v>582200.2044370156</v>
       </c>
       <c r="S31">
-        <v>0.0002276402077259327</v>
+        <v>0.01294598219786935</v>
       </c>
       <c r="T31">
-        <v>0.0002682531811004047</v>
+        <v>0.01583216897468921</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H32">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I32">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J32">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>173827.4559652827</v>
+        <v>1021099.188693108</v>
       </c>
       <c r="R32">
-        <v>1042964.735791696</v>
+        <v>6126595.132158649</v>
       </c>
       <c r="S32">
-        <v>0.05346641614398352</v>
+        <v>0.2043492708608095</v>
       </c>
       <c r="T32">
-        <v>0.04200352347223679</v>
+        <v>0.1666046982337286</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H33">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I33">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J33">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>125439.5636344351</v>
+        <v>601670.5336230509</v>
       </c>
       <c r="R33">
-        <v>1128956.072709916</v>
+        <v>5415034.802607458</v>
       </c>
       <c r="S33">
-        <v>0.03858311032025866</v>
+        <v>0.1204103736500545</v>
       </c>
       <c r="T33">
-        <v>0.04546666945857899</v>
+        <v>0.1472547507632812</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H34">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I34">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J34">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>89283.13726698165</v>
+        <v>393193.9700105567</v>
       </c>
       <c r="R34">
-        <v>803548.2354028348</v>
+        <v>3538745.730095011</v>
       </c>
       <c r="S34">
-        <v>0.02746199871158587</v>
+        <v>0.0786886347264283</v>
       </c>
       <c r="T34">
-        <v>0.03236145576983194</v>
+        <v>0.09623153672970797</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H35">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I35">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J35">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>147771.9104993473</v>
+        <v>871568.4651764858</v>
       </c>
       <c r="R35">
-        <v>886631.4629960839</v>
+        <v>5229410.791058915</v>
       </c>
       <c r="S35">
-        <v>0.04545216644445148</v>
+        <v>0.174424171849596</v>
       </c>
       <c r="T35">
-        <v>0.03570748289865255</v>
+        <v>0.1422069498621496</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H36">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I36">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J36">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>128575.391970784</v>
+        <v>303216.8432107993</v>
       </c>
       <c r="R36">
-        <v>1157178.527737056</v>
+        <v>2728951.588897194</v>
       </c>
       <c r="S36">
-        <v>0.03954763863286777</v>
+        <v>0.06068180399021548</v>
       </c>
       <c r="T36">
-        <v>0.04660327792816141</v>
+        <v>0.07421024992759352</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H37">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I37">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J37">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>84111.68433326819</v>
+        <v>437013.1468994376</v>
       </c>
       <c r="R37">
-        <v>757005.1589994137</v>
+        <v>3933118.322094938</v>
       </c>
       <c r="S37">
-        <v>0.02587134634261735</v>
+        <v>0.08745802456251688</v>
       </c>
       <c r="T37">
-        <v>0.03048701732038885</v>
+        <v>0.1069559807748053</v>
       </c>
     </row>
   </sheetData>
